--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneriddell/Box Sync/TWFE-simulation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneriddell/Documents/repos/TWFE-simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C705303-68A3-5C41-9783-60C0167A56CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD6B5E-D710-A141-BA16-CEEDF9646D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="-28060" windowWidth="28120" windowHeight="28060" activeTab="9" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
+    <workbookView xWindow="-49420" yWindow="-19160" windowWidth="39080" windowHeight="32340" activeTab="9" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="scen1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="6">
   <si>
     <t>state</t>
   </si>
@@ -65,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,13 +76,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,9 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,111 +536,2852 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50393CDB-34CE-664D-AD69-D5281AE8E4F8}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f>D21+3</f>
+        <v>69</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:D31" si="0">D22+3</f>
+        <v>72</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <f>D2+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33:D41" si="1">D3+1</f>
+        <v>13</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <f>D12+1</f>
+        <v>40</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <f>D13+1</f>
+        <v>43</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>13</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <f>D14+1</f>
+        <v>46</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <f>D15+1</f>
+        <v>49</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <f>D16+1</f>
+        <v>52</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <f>D17+1</f>
+        <v>55</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4">
+        <v>17</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <f>D18+1</f>
+        <v>58</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
+        <v>18</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <f>D19+1</f>
+        <v>61</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>19</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <f>D20+1</f>
+        <v>64</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
         <v>20</v>
       </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <f>D21+1</f>
+        <v>67</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
+        <v>21</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <f>D22+1</f>
+        <v>70</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>22</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <f>D23+1</f>
+        <v>73</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4">
+        <v>23</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <f>D24+1</f>
+        <v>76</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>24</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <f>D25+1</f>
+        <v>79</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4">
+        <v>25</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <f>D26+1</f>
+        <v>82</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4">
+        <v>26</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <f>D27+1</f>
+        <v>85</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4">
+        <v>27</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <f>D28+1</f>
+        <v>88</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4">
+        <v>28</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <f>D29+1</f>
+        <v>91</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4">
+        <v>29</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <f>D30+1</f>
+        <v>94</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4">
+        <v>30</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <f>D31+1</f>
+        <v>97</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <f>D32+2</f>
+        <v>12</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" ref="D63:D71" si="2">D33+2</f>
+        <v>15</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>3</v>
+      </c>
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>3</v>
+      </c>
+      <c r="B65" s="5">
+        <v>4</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>3</v>
+      </c>
+      <c r="B66" s="5">
+        <v>5</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>3</v>
+      </c>
+      <c r="B68" s="5">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>3</v>
+      </c>
+      <c r="B69" s="5">
+        <v>8</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5">
+        <v>9</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>3</v>
+      </c>
+      <c r="B71" s="5">
+        <v>10</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="5">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72" s="5">
+        <f>D42+2</f>
+        <v>42</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>3</v>
+      </c>
+      <c r="B73" s="5">
+        <v>12</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" ref="D73:D75" si="3">D43+2</f>
+        <v>45</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5">
+        <v>13</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>3</v>
+      </c>
+      <c r="B75" s="5">
+        <v>14</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5">
+        <v>15</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <f>D46+5</f>
+        <v>57</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>3</v>
+      </c>
+      <c r="B77" s="5">
+        <v>16</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <f>D47+7</f>
+        <v>62</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2</v>
+      </c>
+      <c r="F77" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>3</v>
+      </c>
+      <c r="B78" s="5">
+        <v>17</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <f>D48+9</f>
+        <v>67</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>3</v>
+      </c>
+      <c r="B79" s="5">
+        <v>18</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
+        <f>D49+11</f>
+        <v>72</v>
+      </c>
+      <c r="E79" s="5">
+        <v>4</v>
+      </c>
+      <c r="F79" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>3</v>
+      </c>
+      <c r="B80" s="5">
+        <v>19</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
+        <f>D50+13</f>
+        <v>77</v>
+      </c>
+      <c r="E80" s="5">
+        <v>5</v>
+      </c>
+      <c r="F80" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>3</v>
+      </c>
+      <c r="B81" s="5">
+        <v>20</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <f>D51+15</f>
+        <v>82</v>
+      </c>
+      <c r="E81" s="5">
+        <v>6</v>
+      </c>
+      <c r="F81" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>3</v>
+      </c>
+      <c r="B82" s="5">
+        <v>21</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <f>D52+17</f>
+        <v>87</v>
+      </c>
+      <c r="E82" s="5">
+        <v>7</v>
+      </c>
+      <c r="F82" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>3</v>
+      </c>
+      <c r="B83" s="5">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <f>D53+19</f>
+        <v>92</v>
+      </c>
+      <c r="E83" s="5">
+        <v>8</v>
+      </c>
+      <c r="F83" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>3</v>
+      </c>
+      <c r="B84" s="5">
+        <v>23</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <f>D54+21</f>
+        <v>97</v>
+      </c>
+      <c r="E84" s="5">
+        <v>9</v>
+      </c>
+      <c r="F84" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>3</v>
+      </c>
+      <c r="B85" s="5">
+        <v>24</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
+        <f>D55+23</f>
+        <v>102</v>
+      </c>
+      <c r="E85" s="5">
+        <v>10</v>
+      </c>
+      <c r="F85" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>3</v>
+      </c>
+      <c r="B86" s="5">
+        <v>25</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <f>D56+25</f>
+        <v>107</v>
+      </c>
+      <c r="E86" s="5">
+        <v>11</v>
+      </c>
+      <c r="F86" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>3</v>
+      </c>
+      <c r="B87" s="5">
+        <v>26</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
+        <f>D57+27</f>
+        <v>112</v>
+      </c>
+      <c r="E87" s="5">
+        <v>12</v>
+      </c>
+      <c r="F87" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5">
+        <v>27</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
+        <f>D58+29</f>
+        <v>117</v>
+      </c>
+      <c r="E88" s="5">
+        <v>13</v>
+      </c>
+      <c r="F88" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>3</v>
+      </c>
+      <c r="B89" s="5">
+        <v>28</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <f>D59+31</f>
+        <v>122</v>
+      </c>
+      <c r="E89" s="5">
+        <v>14</v>
+      </c>
+      <c r="F89" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>3</v>
+      </c>
+      <c r="B90" s="5">
+        <v>29</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
+        <f>D60+33</f>
+        <v>127</v>
+      </c>
+      <c r="E90" s="5">
+        <v>15</v>
+      </c>
+      <c r="F90" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>3</v>
+      </c>
+      <c r="B91" s="5">
+        <v>30</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
+        <f>D61+35</f>
+        <v>132</v>
+      </c>
+      <c r="E91" s="5">
+        <v>16</v>
+      </c>
+      <c r="F91" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>4</v>
+      </c>
+      <c r="B92" s="6">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6">
+        <f>D32+8</f>
+        <v>18</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>4</v>
+      </c>
+      <c r="B93" s="6">
+        <v>2</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" ref="D93:D101" si="4">D33+8</f>
+        <v>21</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>4</v>
+      </c>
+      <c r="B94" s="6">
+        <v>3</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>4</v>
+      </c>
+      <c r="B95" s="6">
+        <v>4</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>4</v>
+      </c>
+      <c r="B96" s="6">
+        <v>5</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>4</v>
+      </c>
+      <c r="B97" s="6">
+        <v>6</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>4</v>
+      </c>
+      <c r="B98" s="6">
+        <v>7</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>4</v>
+      </c>
+      <c r="B99" s="6">
+        <v>8</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>4</v>
+      </c>
+      <c r="B100" s="6">
+        <v>9</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
+      <c r="F100" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>4</v>
+      </c>
+      <c r="B101" s="6">
+        <v>10</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>4</v>
+      </c>
+      <c r="B102" s="6">
+        <v>11</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6">
+        <f>D42+8</f>
+        <v>48</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>4</v>
+      </c>
+      <c r="B103" s="6">
+        <v>12</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" ref="D103:D112" si="5">D43+8</f>
+        <v>51</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>4</v>
+      </c>
+      <c r="B104" s="6">
+        <v>13</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>4</v>
+      </c>
+      <c r="B105" s="6">
+        <v>14</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>4</v>
+      </c>
+      <c r="B106" s="6">
+        <v>15</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>4</v>
+      </c>
+      <c r="B107" s="6">
+        <v>16</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>4</v>
+      </c>
+      <c r="B108" s="6">
+        <v>17</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0</v>
+      </c>
+      <c r="F108" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>4</v>
+      </c>
+      <c r="B109" s="6">
+        <v>18</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>4</v>
+      </c>
+      <c r="B110" s="6">
+        <v>19</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>4</v>
+      </c>
+      <c r="B111" s="6">
+        <v>20</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>4</v>
+      </c>
+      <c r="B112" s="6">
+        <v>21</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>4</v>
+      </c>
+      <c r="B113" s="6">
+        <v>22</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="D113" s="6">
+        <f>D53+9</f>
+        <v>82</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>4</v>
+      </c>
+      <c r="B114" s="6">
+        <v>23</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="D114" s="6">
+        <f>D54+10</f>
+        <v>86</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>4</v>
+      </c>
+      <c r="B115" s="6">
+        <v>24</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+      <c r="D115" s="6">
+        <f>D55+11</f>
+        <v>90</v>
+      </c>
+      <c r="E115" s="6">
+        <v>3</v>
+      </c>
+      <c r="F115" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>4</v>
+      </c>
+      <c r="B116" s="6">
+        <v>25</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6">
+        <f>D56+12</f>
+        <v>94</v>
+      </c>
+      <c r="E116" s="6">
+        <v>4</v>
+      </c>
+      <c r="F116" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>4</v>
+      </c>
+      <c r="B117" s="6">
+        <v>26</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6">
+        <f>D57+13</f>
+        <v>98</v>
+      </c>
+      <c r="E117" s="6">
+        <v>5</v>
+      </c>
+      <c r="F117" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>4</v>
+      </c>
+      <c r="B118" s="6">
+        <v>27</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6">
+        <f>D58+14</f>
+        <v>102</v>
+      </c>
+      <c r="E118" s="6">
+        <v>6</v>
+      </c>
+      <c r="F118" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>4</v>
+      </c>
+      <c r="B119" s="6">
+        <v>28</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+      <c r="D119" s="6">
+        <f>D59+15</f>
+        <v>106</v>
+      </c>
+      <c r="E119" s="6">
+        <v>7</v>
+      </c>
+      <c r="F119" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>4</v>
+      </c>
+      <c r="B120" s="6">
+        <v>29</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="6">
+        <f>D60+16</f>
+        <v>110</v>
+      </c>
+      <c r="E120" s="6">
+        <v>8</v>
+      </c>
+      <c r="F120" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>4</v>
+      </c>
+      <c r="B121" s="6">
+        <v>30</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="D121" s="6">
+        <f>D61+17</f>
+        <v>114</v>
+      </c>
+      <c r="E121" s="6">
+        <v>9</v>
+      </c>
+      <c r="F121" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6011,8 +8792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32EF42-1665-1742-8ED8-18BCC709F02B}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneriddell/Documents/repos/TWFE-simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD6B5E-D710-A141-BA16-CEEDF9646D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0838F384-D62C-FE4B-BBF3-B86C1CE07E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49420" yWindow="-19160" windowWidth="39080" windowHeight="32340" activeTab="9" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
+    <workbookView xWindow="8760" yWindow="5860" windowWidth="23080" windowHeight="32340" activeTab="9" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="scen1" sheetId="1" r:id="rId1"/>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50393CDB-34CE-664D-AD69-D5281AE8E4F8}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="4">
-        <f>D12+1</f>
+        <f t="shared" ref="D42:D61" si="2">D12+1</f>
         <v>40</v>
       </c>
       <c r="E42" s="4">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="4">
-        <f>D13+1</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="E43" s="4">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f>D14+1</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="E44" s="4">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="4">
-        <f>D15+1</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="E45" s="4">
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <f>D16+1</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="E46" s="4">
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="4">
-        <f>D17+1</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="E47" s="4">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="4">
-        <f>D18+1</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="E48" s="4">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="4">
-        <f>D19+1</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="E49" s="4">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="4">
-        <f>D20+1</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="E50" s="4">
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f>D21+1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="E51" s="4">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <f>D22+1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E52" s="4">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <f>D23+1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="E53" s="4">
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f>D24+1</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="E54" s="4">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="4">
-        <f>D25+1</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="E55" s="4">
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="4">
-        <f>D26+1</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="E56" s="4">
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="4">
-        <f>D27+1</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="E57" s="4">
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <f>D28+1</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="E58" s="4">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="4">
-        <f>D29+1</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="E59" s="4">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="4">
-        <f>D30+1</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="E60" s="4">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="4">
-        <f>D31+1</f>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="E61" s="4">
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" ref="D63:D71" si="2">D33+2</f>
+        <f t="shared" ref="D63:D71" si="3">D33+2</f>
         <v>15</v>
       </c>
       <c r="E63" s="5">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="E64" s="5">
@@ -1871,7 +1871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>3</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="E65" s="5">
@@ -1892,7 +1892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>3</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="E66" s="5">
@@ -1913,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>3</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="E67" s="5">
@@ -1934,7 +1934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>3</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E68" s="5">
@@ -1955,7 +1955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>3</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="E69" s="5">
@@ -1976,7 +1976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>3</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="E70" s="5">
@@ -1997,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>3</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="E71" s="5">
@@ -2018,7 +2018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>3</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>3</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" ref="D73:D75" si="3">D43+2</f>
+        <f t="shared" ref="D73:D75" si="4">D43+2</f>
         <v>45</v>
       </c>
       <c r="E73" s="5">
@@ -2060,7 +2060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>3</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="E74" s="5">
@@ -2081,7 +2081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>3</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="E75" s="5">
@@ -2102,7 +2102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>3</v>
       </c>
@@ -2122,8 +2122,11 @@
       <c r="F76" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>3</v>
       </c>
@@ -2143,8 +2146,11 @@
       <c r="F77" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>3</v>
       </c>
@@ -2164,8 +2170,11 @@
       <c r="F78" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>3</v>
       </c>
@@ -2185,8 +2194,11 @@
       <c r="F79" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>3</v>
       </c>
@@ -2206,8 +2218,11 @@
       <c r="F80" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>3</v>
       </c>
@@ -2227,8 +2242,11 @@
       <c r="F81" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>3</v>
       </c>
@@ -2248,8 +2266,11 @@
       <c r="F82" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>3</v>
       </c>
@@ -2269,8 +2290,11 @@
       <c r="F83" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>3</v>
       </c>
@@ -2290,8 +2314,11 @@
       <c r="F84" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>3</v>
       </c>
@@ -2311,8 +2338,11 @@
       <c r="F85" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>3</v>
       </c>
@@ -2332,8 +2362,11 @@
       <c r="F86" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>3</v>
       </c>
@@ -2353,8 +2386,11 @@
       <c r="F87" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>3</v>
       </c>
@@ -2374,8 +2410,11 @@
       <c r="F88" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>3</v>
       </c>
@@ -2395,8 +2434,11 @@
       <c r="F89" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>3</v>
       </c>
@@ -2416,8 +2458,11 @@
       <c r="F90" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>3</v>
       </c>
@@ -2437,8 +2482,11 @@
       <c r="F91" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>4</v>
       </c>
@@ -2459,7 +2507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>4</v>
       </c>
@@ -2470,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" ref="D93:D101" si="4">D33+8</f>
+        <f t="shared" ref="D93:D101" si="5">D33+8</f>
         <v>21</v>
       </c>
       <c r="E93" s="6">
@@ -2480,7 +2528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>4</v>
       </c>
@@ -2491,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="E94" s="6">
@@ -2501,7 +2549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>4</v>
       </c>
@@ -2512,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="E95" s="6">
@@ -2522,7 +2570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>4</v>
       </c>
@@ -2533,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E96" s="6">
@@ -2554,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="E97" s="6">
@@ -2575,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="E98" s="6">
@@ -2596,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="E99" s="6">
@@ -2617,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="E100" s="6">
@@ -2638,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="E101" s="6">
@@ -2680,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" ref="D103:D112" si="5">D43+8</f>
+        <f t="shared" ref="D103:D112" si="6">D43+8</f>
         <v>51</v>
       </c>
       <c r="E103" s="6">
@@ -2701,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="E104" s="6">
@@ -2722,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="E105" s="6">
@@ -2743,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E106" s="6">
@@ -2764,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="E107" s="6">
@@ -2785,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="E108" s="6">
@@ -2806,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="E109" s="6">
@@ -2827,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="E110" s="6">
@@ -2848,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="E111" s="6">
@@ -2869,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="D112" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="E112" s="6">
@@ -2879,7 +2927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>4</v>
       </c>
@@ -2899,8 +2947,11 @@
       <c r="F113" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>4</v>
       </c>
@@ -2920,8 +2971,11 @@
       <c r="F114" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>4</v>
       </c>
@@ -2941,8 +2995,11 @@
       <c r="F115" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>4</v>
       </c>
@@ -2962,8 +3019,11 @@
       <c r="F116" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>4</v>
       </c>
@@ -2983,8 +3043,11 @@
       <c r="F117" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>4</v>
       </c>
@@ -3004,8 +3067,11 @@
       <c r="F118" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>4</v>
       </c>
@@ -3025,8 +3091,11 @@
       <c r="F119" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>4</v>
       </c>
@@ -3046,8 +3115,11 @@
       <c r="F120" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>4</v>
       </c>
@@ -3067,8 +3139,11 @@
       <c r="F121" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3076,7 +3151,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3084,7 +3159,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3092,7 +3167,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3100,7 +3175,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3108,7 +3183,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3116,7 +3191,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8792,8 +8867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32EF42-1665-1742-8ED8-18BCC709F02B}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneriddell/Documents/repos/TWFE-simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0838F384-D62C-FE4B-BBF3-B86C1CE07E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE902B-EAF0-C34C-AA10-5196811C2EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="5860" windowWidth="23080" windowHeight="32340" activeTab="9" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
+    <workbookView xWindow="-36200" yWindow="-6640" windowWidth="30240" windowHeight="18880" activeTab="10" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="scen1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="scen5" sheetId="7" r:id="rId7"/>
     <sheet name="scen6" sheetId="9" r:id="rId8"/>
     <sheet name="scen7" sheetId="10" r:id="rId9"/>
-    <sheet name="scen8" sheetId="11" r:id="rId10"/>
+    <sheet name="scen8_OLD" sheetId="11" r:id="rId10"/>
+    <sheet name="scen8" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="6">
   <si>
     <t>state</t>
   </si>
@@ -536,10 +537,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50393CDB-34CE-664D-AD69-D5281AE8E4F8}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1871,7 +1872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>3</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>3</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>3</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>3</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>3</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>3</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>3</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>3</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>3</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>3</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>3</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>3</v>
       </c>
@@ -2122,11 +2123,8 @@
       <c r="F76" s="5">
         <v>15</v>
       </c>
-      <c r="G76" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>3</v>
       </c>
@@ -2146,11 +2144,8 @@
       <c r="F77" s="5">
         <v>15</v>
       </c>
-      <c r="G77" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>3</v>
       </c>
@@ -2170,11 +2165,8 @@
       <c r="F78" s="5">
         <v>15</v>
       </c>
-      <c r="G78" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>3</v>
       </c>
@@ -2194,11 +2186,8 @@
       <c r="F79" s="5">
         <v>15</v>
       </c>
-      <c r="G79" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>3</v>
       </c>
@@ -2218,11 +2207,8 @@
       <c r="F80" s="5">
         <v>15</v>
       </c>
-      <c r="G80" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>3</v>
       </c>
@@ -2242,11 +2228,8 @@
       <c r="F81" s="5">
         <v>15</v>
       </c>
-      <c r="G81" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>3</v>
       </c>
@@ -2266,11 +2249,8 @@
       <c r="F82" s="5">
         <v>15</v>
       </c>
-      <c r="G82" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>3</v>
       </c>
@@ -2290,11 +2270,8 @@
       <c r="F83" s="5">
         <v>15</v>
       </c>
-      <c r="G83" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>3</v>
       </c>
@@ -2314,11 +2291,8 @@
       <c r="F84" s="5">
         <v>15</v>
       </c>
-      <c r="G84" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>3</v>
       </c>
@@ -2338,11 +2312,8 @@
       <c r="F85" s="5">
         <v>15</v>
       </c>
-      <c r="G85" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>3</v>
       </c>
@@ -2362,11 +2333,8 @@
       <c r="F86" s="5">
         <v>15</v>
       </c>
-      <c r="G86" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>3</v>
       </c>
@@ -2386,11 +2354,8 @@
       <c r="F87" s="5">
         <v>15</v>
       </c>
-      <c r="G87" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>3</v>
       </c>
@@ -2410,11 +2375,8 @@
       <c r="F88" s="5">
         <v>15</v>
       </c>
-      <c r="G88" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>3</v>
       </c>
@@ -2434,11 +2396,8 @@
       <c r="F89" s="5">
         <v>15</v>
       </c>
-      <c r="G89" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>3</v>
       </c>
@@ -2458,11 +2417,8 @@
       <c r="F90" s="5">
         <v>15</v>
       </c>
-      <c r="G90" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>3</v>
       </c>
@@ -2482,11 +2438,8 @@
       <c r="F91" s="5">
         <v>15</v>
       </c>
-      <c r="G91" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>4</v>
       </c>
@@ -2507,7 +2460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>4</v>
       </c>
@@ -2528,7 +2481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>4</v>
       </c>
@@ -2549,7 +2502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>4</v>
       </c>
@@ -2570,7 +2523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>4</v>
       </c>
@@ -2927,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>4</v>
       </c>
@@ -2947,11 +2900,8 @@
       <c r="F113" s="6">
         <v>22</v>
       </c>
-      <c r="G113" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>4</v>
       </c>
@@ -2971,11 +2921,8 @@
       <c r="F114" s="6">
         <v>22</v>
       </c>
-      <c r="G114" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>4</v>
       </c>
@@ -2995,11 +2942,8 @@
       <c r="F115" s="6">
         <v>22</v>
       </c>
-      <c r="G115" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>4</v>
       </c>
@@ -3019,11 +2963,8 @@
       <c r="F116" s="6">
         <v>22</v>
       </c>
-      <c r="G116" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>4</v>
       </c>
@@ -3043,11 +2984,8 @@
       <c r="F117" s="6">
         <v>22</v>
       </c>
-      <c r="G117" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>4</v>
       </c>
@@ -3067,11 +3005,8 @@
       <c r="F118" s="6">
         <v>22</v>
       </c>
-      <c r="G118" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>4</v>
       </c>
@@ -3091,11 +3026,8 @@
       <c r="F119" s="6">
         <v>22</v>
       </c>
-      <c r="G119" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>4</v>
       </c>
@@ -3115,11 +3047,8 @@
       <c r="F120" s="6">
         <v>22</v>
       </c>
-      <c r="G120" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>4</v>
       </c>
@@ -3139,11 +3068,8 @@
       <c r="F121" s="6">
         <v>22</v>
       </c>
-      <c r="G121" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3151,7 +3077,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3159,7 +3085,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3167,7 +3093,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3175,7 +3101,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3183,7 +3109,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3191,7 +3117,2861 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614FFDD6-16D5-BA47-8A1C-7C7CB4FDA225}">
+  <dimension ref="A1:F161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f>D21+3</f>
+        <v>69</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:D31" si="0">D22+3</f>
+        <v>72</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <f>D2+1</f>
+        <v>10</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33:D61" si="1">D3+1</f>
+        <v>13</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>13</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
+        <v>15</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4">
+        <v>17</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
+        <v>18</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>19</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
+        <v>20</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
+        <v>21</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>22</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4">
+        <v>23</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>24</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4">
+        <v>25</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4">
+        <v>26</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4">
+        <v>27</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4">
+        <v>28</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4">
+        <v>29</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4">
+        <v>30</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <f>D32+2</f>
+        <v>12</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" ref="D63:D71" si="2">D33+2</f>
+        <v>15</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>3</v>
+      </c>
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>3</v>
+      </c>
+      <c r="B65" s="5">
+        <v>4</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>3</v>
+      </c>
+      <c r="B66" s="5">
+        <v>5</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>3</v>
+      </c>
+      <c r="B68" s="5">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>3</v>
+      </c>
+      <c r="B69" s="5">
+        <v>8</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5">
+        <v>9</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>3</v>
+      </c>
+      <c r="B71" s="5">
+        <v>10</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="5">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72" s="5">
+        <f>D42+2</f>
+        <v>42</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>3</v>
+      </c>
+      <c r="B73" s="5">
+        <v>12</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" ref="D73:D75" si="3">D43+2</f>
+        <v>45</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5">
+        <v>13</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>3</v>
+      </c>
+      <c r="B75" s="5">
+        <v>14</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5">
+        <v>15</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <f>D46+5</f>
+        <v>57</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>3</v>
+      </c>
+      <c r="B77" s="5">
+        <v>16</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <f>D47+7</f>
+        <v>62</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2</v>
+      </c>
+      <c r="F77" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>3</v>
+      </c>
+      <c r="B78" s="5">
+        <v>17</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <f>D48+9</f>
+        <v>67</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>3</v>
+      </c>
+      <c r="B79" s="5">
+        <v>18</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
+        <f>D49+11</f>
+        <v>72</v>
+      </c>
+      <c r="E79" s="5">
+        <v>4</v>
+      </c>
+      <c r="F79" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>3</v>
+      </c>
+      <c r="B80" s="5">
+        <v>19</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
+        <f>D50+13</f>
+        <v>77</v>
+      </c>
+      <c r="E80" s="5">
+        <v>5</v>
+      </c>
+      <c r="F80" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>3</v>
+      </c>
+      <c r="B81" s="5">
+        <v>20</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <f>D51+15</f>
+        <v>82</v>
+      </c>
+      <c r="E81" s="5">
+        <v>6</v>
+      </c>
+      <c r="F81" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>3</v>
+      </c>
+      <c r="B82" s="5">
+        <v>21</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <f>D52+17</f>
+        <v>87</v>
+      </c>
+      <c r="E82" s="5">
+        <v>7</v>
+      </c>
+      <c r="F82" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>3</v>
+      </c>
+      <c r="B83" s="5">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <f>D53+19</f>
+        <v>92</v>
+      </c>
+      <c r="E83" s="5">
+        <v>8</v>
+      </c>
+      <c r="F83" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>3</v>
+      </c>
+      <c r="B84" s="5">
+        <v>23</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <f>D54+21</f>
+        <v>97</v>
+      </c>
+      <c r="E84" s="5">
+        <v>9</v>
+      </c>
+      <c r="F84" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>3</v>
+      </c>
+      <c r="B85" s="5">
+        <v>24</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
+        <f>D55+23</f>
+        <v>102</v>
+      </c>
+      <c r="E85" s="5">
+        <v>10</v>
+      </c>
+      <c r="F85" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>3</v>
+      </c>
+      <c r="B86" s="5">
+        <v>25</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <f>D56+25</f>
+        <v>107</v>
+      </c>
+      <c r="E86" s="5">
+        <v>11</v>
+      </c>
+      <c r="F86" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>3</v>
+      </c>
+      <c r="B87" s="5">
+        <v>26</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
+        <f>D57+27</f>
+        <v>112</v>
+      </c>
+      <c r="E87" s="5">
+        <v>12</v>
+      </c>
+      <c r="F87" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5">
+        <v>27</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
+        <f>D58+29</f>
+        <v>117</v>
+      </c>
+      <c r="E88" s="5">
+        <v>13</v>
+      </c>
+      <c r="F88" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>3</v>
+      </c>
+      <c r="B89" s="5">
+        <v>28</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <f>D59+31</f>
+        <v>122</v>
+      </c>
+      <c r="E89" s="5">
+        <v>14</v>
+      </c>
+      <c r="F89" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>3</v>
+      </c>
+      <c r="B90" s="5">
+        <v>29</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
+        <f>D60+33</f>
+        <v>127</v>
+      </c>
+      <c r="E90" s="5">
+        <v>15</v>
+      </c>
+      <c r="F90" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>3</v>
+      </c>
+      <c r="B91" s="5">
+        <v>30</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
+        <f>D61+35</f>
+        <v>132</v>
+      </c>
+      <c r="E91" s="5">
+        <v>16</v>
+      </c>
+      <c r="F91" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>4</v>
+      </c>
+      <c r="B92" s="6">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6">
+        <f>D32+8</f>
+        <v>18</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>4</v>
+      </c>
+      <c r="B93" s="6">
+        <v>2</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" ref="D93:D101" si="4">D33+8</f>
+        <v>21</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>4</v>
+      </c>
+      <c r="B94" s="6">
+        <v>3</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>4</v>
+      </c>
+      <c r="B95" s="6">
+        <v>4</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>4</v>
+      </c>
+      <c r="B96" s="6">
+        <v>5</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>4</v>
+      </c>
+      <c r="B97" s="6">
+        <v>6</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>4</v>
+      </c>
+      <c r="B98" s="6">
+        <v>7</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>4</v>
+      </c>
+      <c r="B99" s="6">
+        <v>8</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>4</v>
+      </c>
+      <c r="B100" s="6">
+        <v>9</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
+      <c r="F100" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>4</v>
+      </c>
+      <c r="B101" s="6">
+        <v>10</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>4</v>
+      </c>
+      <c r="B102" s="6">
+        <v>11</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6">
+        <f>D42+8</f>
+        <v>48</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>4</v>
+      </c>
+      <c r="B103" s="6">
+        <v>12</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" ref="D103:D112" si="5">D43+8</f>
+        <v>51</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>4</v>
+      </c>
+      <c r="B104" s="6">
+        <v>13</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>4</v>
+      </c>
+      <c r="B105" s="6">
+        <v>14</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>4</v>
+      </c>
+      <c r="B106" s="6">
+        <v>15</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>4</v>
+      </c>
+      <c r="B107" s="6">
+        <v>16</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>4</v>
+      </c>
+      <c r="B108" s="6">
+        <v>17</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0</v>
+      </c>
+      <c r="F108" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>4</v>
+      </c>
+      <c r="B109" s="6">
+        <v>18</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>4</v>
+      </c>
+      <c r="B110" s="6">
+        <v>19</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>4</v>
+      </c>
+      <c r="B111" s="6">
+        <v>20</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>4</v>
+      </c>
+      <c r="B112" s="6">
+        <v>21</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>4</v>
+      </c>
+      <c r="B113" s="6">
+        <v>22</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="D113" s="6">
+        <f>D53+9</f>
+        <v>82</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>4</v>
+      </c>
+      <c r="B114" s="6">
+        <v>23</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="D114" s="6">
+        <f>D54+10</f>
+        <v>86</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>4</v>
+      </c>
+      <c r="B115" s="6">
+        <v>24</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+      <c r="D115" s="6">
+        <f>D55+11</f>
+        <v>90</v>
+      </c>
+      <c r="E115" s="6">
+        <v>3</v>
+      </c>
+      <c r="F115" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>4</v>
+      </c>
+      <c r="B116" s="6">
+        <v>25</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6">
+        <f>D56+12</f>
+        <v>94</v>
+      </c>
+      <c r="E116" s="6">
+        <v>4</v>
+      </c>
+      <c r="F116" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>4</v>
+      </c>
+      <c r="B117" s="6">
+        <v>26</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6">
+        <f>D57+13</f>
+        <v>98</v>
+      </c>
+      <c r="E117" s="6">
+        <v>5</v>
+      </c>
+      <c r="F117" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>4</v>
+      </c>
+      <c r="B118" s="6">
+        <v>27</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6">
+        <f>D58+14</f>
+        <v>102</v>
+      </c>
+      <c r="E118" s="6">
+        <v>6</v>
+      </c>
+      <c r="F118" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>4</v>
+      </c>
+      <c r="B119" s="6">
+        <v>28</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+      <c r="D119" s="6">
+        <f>D59+15</f>
+        <v>106</v>
+      </c>
+      <c r="E119" s="6">
+        <v>7</v>
+      </c>
+      <c r="F119" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>4</v>
+      </c>
+      <c r="B120" s="6">
+        <v>29</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="6">
+        <f>D60+16</f>
+        <v>110</v>
+      </c>
+      <c r="E120" s="6">
+        <v>8</v>
+      </c>
+      <c r="F120" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>4</v>
+      </c>
+      <c r="B121" s="6">
+        <v>30</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="D121" s="6">
+        <f>D61+17</f>
+        <v>114</v>
+      </c>
+      <c r="E121" s="6">
+        <v>9</v>
+      </c>
+      <c r="F121" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneriddell/Documents/repos/TWFE-simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE902B-EAF0-C34C-AA10-5196811C2EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0827C056-C2D5-2D44-9B3C-8F0939EBD115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36200" yWindow="-6640" windowWidth="30240" windowHeight="18880" activeTab="10" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
+    <workbookView xWindow="-36200" yWindow="500" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="scen1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="8">
   <si>
     <t>state</t>
   </si>
@@ -64,11 +62,20 @@
   <si>
     <t>time_first_treat</t>
   </si>
+  <si>
+    <t>time_as_date</t>
+  </si>
+  <si>
+    <t>time_first_trt_date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -129,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -138,6 +145,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3393,7 +3401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614FFDD6-16D5-BA47-8A1C-7C7CB4FDA225}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -7235,18 +7243,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F50E3BD-804D-9843-BE18-BD1661C90A82}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7265,8 +7276,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7285,8 +7302,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="8">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7305,8 +7325,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7325,8 +7348,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="8">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7345,8 +7371,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="8">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7365,8 +7394,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7385,8 +7417,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7405,8 +7440,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7425,8 +7463,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7445,8 +7486,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="8">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7465,8 +7509,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7486,8 +7533,14 @@
       <c r="F12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H12" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7507,8 +7560,14 @@
       <c r="F13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H13" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7528,8 +7587,14 @@
       <c r="F14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H14" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -7549,8 +7614,14 @@
       <c r="F15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H15" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -7570,8 +7641,14 @@
       <c r="F16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H16" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -7591,8 +7668,14 @@
       <c r="F17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H17" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7612,8 +7695,14 @@
       <c r="F18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H18" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -7633,8 +7722,14 @@
       <c r="F19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H19" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -7654,8 +7749,14 @@
       <c r="F20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H20" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7675,8 +7776,14 @@
       <c r="F21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H21" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7696,8 +7803,14 @@
       <c r="F22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H22" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7717,8 +7830,14 @@
       <c r="F23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H23" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7738,8 +7857,14 @@
       <c r="F24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H24" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7759,8 +7884,14 @@
       <c r="F25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H25" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7780,8 +7911,14 @@
       <c r="F26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H26" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7801,8 +7938,14 @@
       <c r="F27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H27" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -7822,8 +7965,14 @@
       <c r="F28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H28" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7843,8 +7992,14 @@
       <c r="F29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H29" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -7864,8 +8019,14 @@
       <c r="F30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H30" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -7885,8 +8046,14 @@
       <c r="F31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H31" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -7906,8 +8073,14 @@
       <c r="F32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H32" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -7927,8 +8100,14 @@
       <c r="F33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H33" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -7948,8 +8127,14 @@
       <c r="F34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H34" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -7969,8 +8154,14 @@
       <c r="F35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H35" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -7990,8 +8181,14 @@
       <c r="F36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H36" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -8011,8 +8208,14 @@
       <c r="F37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H37" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -8032,8 +8235,14 @@
       <c r="F38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H38" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -8053,8 +8262,14 @@
       <c r="F39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H39" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -8074,8 +8289,14 @@
       <c r="F40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H40" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -8094,6 +8315,12 @@
       </c>
       <c r="F41">
         <v>6</v>
+      </c>
+      <c r="G41" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H41" s="8">
+        <v>42156</v>
       </c>
     </row>
   </sheetData>
@@ -8103,19 +8330,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F2608B-013F-F240-B42A-42C2F56EDC88}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8134,8 +8363,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8154,8 +8389,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="8">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8174,8 +8412,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8194,8 +8435,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="8">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8214,8 +8458,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="8">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8234,8 +8481,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8254,8 +8504,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8274,8 +8527,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -8294,8 +8550,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -8314,8 +8573,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="8">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8334,8 +8596,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -8354,8 +8619,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -8374,8 +8642,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -8394,8 +8665,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="8">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8414,8 +8688,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="8">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -8434,8 +8711,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="8">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -8454,8 +8734,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="8">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -8474,8 +8757,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="8">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -8494,8 +8780,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="8">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -8514,8 +8803,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="8">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -8534,8 +8826,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="8">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8555,8 +8850,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="8">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8576,8 +8874,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="8">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8597,8 +8898,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="8">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8618,8 +8922,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="8">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8639,8 +8946,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8660,8 +8970,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -8681,8 +8994,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="8">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8702,8 +9018,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="8">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -8723,8 +9042,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="8">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -8744,8 +9066,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="8">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -8765,8 +9090,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="8">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -8786,8 +9114,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -8807,8 +9138,11 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="8">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -8828,8 +9162,11 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="8">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -8849,8 +9186,11 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="8">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -8870,8 +9210,11 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="8">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -8891,8 +9234,11 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="8">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -8912,8 +9258,11 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="8">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -8933,8 +9282,11 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="8">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -8954,8 +9306,11 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="8">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -8975,8 +9330,14 @@
       <c r="F42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H42" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -8996,8 +9357,14 @@
       <c r="F43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H43" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -9017,8 +9384,14 @@
       <c r="F44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H44" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -9038,8 +9411,14 @@
       <c r="F45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H45" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -9059,8 +9438,14 @@
       <c r="F46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H46" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -9080,8 +9465,14 @@
       <c r="F47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H47" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -9101,8 +9492,14 @@
       <c r="F48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H48" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -9122,8 +9519,14 @@
       <c r="F49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H49" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -9143,8 +9546,14 @@
       <c r="F50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H50" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -9164,8 +9573,14 @@
       <c r="F51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H51" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -9185,8 +9600,14 @@
       <c r="F52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="8">
+        <v>42309</v>
+      </c>
+      <c r="H52" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -9206,8 +9627,14 @@
       <c r="F53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="8">
+        <v>42339</v>
+      </c>
+      <c r="H53" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -9227,8 +9654,14 @@
       <c r="F54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="8">
+        <v>42370</v>
+      </c>
+      <c r="H54" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -9248,8 +9681,14 @@
       <c r="F55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="8">
+        <v>42401</v>
+      </c>
+      <c r="H55" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -9269,8 +9708,14 @@
       <c r="F56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="8">
+        <v>42430</v>
+      </c>
+      <c r="H56" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -9290,8 +9735,14 @@
       <c r="F57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="8">
+        <v>42461</v>
+      </c>
+      <c r="H57" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -9311,8 +9762,14 @@
       <c r="F58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="8">
+        <v>42491</v>
+      </c>
+      <c r="H58" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -9332,8 +9789,14 @@
       <c r="F59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H59" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -9353,8 +9816,14 @@
       <c r="F60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="8">
+        <v>42552</v>
+      </c>
+      <c r="H60" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -9374,8 +9843,14 @@
       <c r="F61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="8">
+        <v>42583</v>
+      </c>
+      <c r="H61" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -9395,8 +9870,14 @@
       <c r="F62">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H62" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4</v>
       </c>
@@ -9416,8 +9897,14 @@
       <c r="F63">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H63" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4</v>
       </c>
@@ -9437,8 +9924,14 @@
       <c r="F64">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H64" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -9458,8 +9951,14 @@
       <c r="F65">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H65" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -9479,8 +9978,14 @@
       <c r="F66">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H66" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -9500,8 +10005,14 @@
       <c r="F67">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H67" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -9521,8 +10032,14 @@
       <c r="F68">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H68" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -9542,8 +10059,14 @@
       <c r="F69">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H69" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4</v>
       </c>
@@ -9563,8 +10086,14 @@
       <c r="F70">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H70" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -9584,8 +10113,14 @@
       <c r="F71">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H71" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -9605,8 +10140,14 @@
       <c r="F72">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="8">
+        <v>42309</v>
+      </c>
+      <c r="H72" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -9626,8 +10167,14 @@
       <c r="F73">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="8">
+        <v>42339</v>
+      </c>
+      <c r="H73" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4</v>
       </c>
@@ -9647,8 +10194,14 @@
       <c r="F74">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="8">
+        <v>42370</v>
+      </c>
+      <c r="H74" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4</v>
       </c>
@@ -9668,8 +10221,14 @@
       <c r="F75">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="8">
+        <v>42401</v>
+      </c>
+      <c r="H75" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -9689,8 +10248,14 @@
       <c r="F76">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="8">
+        <v>42430</v>
+      </c>
+      <c r="H76" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4</v>
       </c>
@@ -9710,8 +10275,14 @@
       <c r="F77">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="8">
+        <v>42461</v>
+      </c>
+      <c r="H77" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
@@ -9731,8 +10302,14 @@
       <c r="F78">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="8">
+        <v>42491</v>
+      </c>
+      <c r="H78" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4</v>
       </c>
@@ -9752,8 +10329,14 @@
       <c r="F79">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H79" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4</v>
       </c>
@@ -9773,8 +10356,14 @@
       <c r="F80">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="8">
+        <v>42552</v>
+      </c>
+      <c r="H80" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -9793,6 +10382,12 @@
       </c>
       <c r="F81">
         <v>12</v>
+      </c>
+      <c r="G81" s="8">
+        <v>42583</v>
+      </c>
+      <c r="H81" s="8">
+        <v>42339</v>
       </c>
     </row>
   </sheetData>
@@ -9804,17 +10399,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3433CF-54DF-E64E-AB09-C6F8EBF063B6}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82:I83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9833,8 +10430,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9853,8 +10456,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="8">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9873,8 +10479,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9893,8 +10502,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="8">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9913,8 +10525,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="8">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -9933,8 +10548,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -9953,8 +10571,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9973,8 +10594,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9993,8 +10617,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -10013,8 +10640,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="8">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10033,8 +10663,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -10053,8 +10686,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10073,8 +10709,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -10093,8 +10732,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="8">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -10113,8 +10755,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="8">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -10133,8 +10778,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="8">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -10153,8 +10801,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="8">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -10173,8 +10824,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="8">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -10193,8 +10847,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="8">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -10213,8 +10870,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="8">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -10233,8 +10893,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="8">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -10254,8 +10917,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="8">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -10275,8 +10941,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="8">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -10296,8 +10965,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="8">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -10317,8 +10989,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="8">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -10338,8 +11013,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10359,8 +11037,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -10380,8 +11061,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="8">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -10401,8 +11085,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="8">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -10422,8 +11109,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="8">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -10443,8 +11133,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="8">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -10464,6 +11157,9 @@
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32" s="8">
+        <v>42309</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -10485,6 +11181,9 @@
       <c r="F33">
         <v>0</v>
       </c>
+      <c r="G33" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -10506,6 +11205,9 @@
       <c r="F34">
         <v>0</v>
       </c>
+      <c r="G34" s="8">
+        <v>42370</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -10527,6 +11229,9 @@
       <c r="F35">
         <v>0</v>
       </c>
+      <c r="G35" s="8">
+        <v>42401</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -10548,6 +11253,9 @@
       <c r="F36">
         <v>0</v>
       </c>
+      <c r="G36" s="8">
+        <v>42430</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -10569,6 +11277,9 @@
       <c r="F37">
         <v>0</v>
       </c>
+      <c r="G37" s="8">
+        <v>42461</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -10590,6 +11301,9 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="G38" s="8">
+        <v>42491</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -10611,6 +11325,9 @@
       <c r="F39">
         <v>0</v>
       </c>
+      <c r="G39" s="8">
+        <v>42522</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -10632,8 +11349,9 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="8">
+        <v>42552</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
@@ -10657,8 +11375,9 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="8">
+        <v>42583</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
@@ -10682,8 +11401,12 @@
       <c r="F42">
         <v>5</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H42" s="8">
+        <v>42125</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
@@ -10707,8 +11430,12 @@
       <c r="F43">
         <v>5</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H43" s="8">
+        <v>42125</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
@@ -10732,8 +11459,12 @@
       <c r="F44">
         <v>5</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H44" s="8">
+        <v>42125</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
@@ -10757,8 +11488,12 @@
       <c r="F45">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H45" s="8">
+        <v>42125</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
@@ -10782,8 +11517,12 @@
       <c r="F46">
         <v>5</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H46" s="8">
+        <v>42125</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
@@ -10807,8 +11546,12 @@
       <c r="F47">
         <v>5</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H47" s="8">
+        <v>42125</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
@@ -10832,8 +11575,12 @@
       <c r="F48">
         <v>5</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H48" s="8">
+        <v>42125</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
@@ -10857,8 +11604,12 @@
       <c r="F49">
         <v>5</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H49" s="8">
+        <v>42125</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
@@ -10882,8 +11633,12 @@
       <c r="F50">
         <v>5</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H50" s="8">
+        <v>42125</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
@@ -10907,8 +11662,12 @@
       <c r="F51">
         <v>5</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="G51" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H51" s="8">
+        <v>42125</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
@@ -10932,8 +11691,12 @@
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="8">
+        <v>42309</v>
+      </c>
+      <c r="H52" s="8">
+        <v>42125</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
@@ -10957,8 +11720,12 @@
       <c r="F53">
         <v>5</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="G53" s="8">
+        <v>42339</v>
+      </c>
+      <c r="H53" s="8">
+        <v>42125</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
@@ -10982,8 +11749,12 @@
       <c r="F54">
         <v>5</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="8">
+        <v>42370</v>
+      </c>
+      <c r="H54" s="8">
+        <v>42125</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
@@ -11007,8 +11778,12 @@
       <c r="F55">
         <v>5</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="G55" s="8">
+        <v>42401</v>
+      </c>
+      <c r="H55" s="8">
+        <v>42125</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
@@ -11032,8 +11807,12 @@
       <c r="F56">
         <v>5</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="8">
+        <v>42430</v>
+      </c>
+      <c r="H56" s="8">
+        <v>42125</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
@@ -11057,8 +11836,12 @@
       <c r="F57">
         <v>5</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="G57" s="8">
+        <v>42461</v>
+      </c>
+      <c r="H57" s="8">
+        <v>42125</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
@@ -11082,8 +11865,12 @@
       <c r="F58">
         <v>5</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="G58" s="8">
+        <v>42491</v>
+      </c>
+      <c r="H58" s="8">
+        <v>42125</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
@@ -11107,8 +11894,12 @@
       <c r="F59">
         <v>5</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="G59" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H59" s="8">
+        <v>42125</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
@@ -11132,8 +11923,12 @@
       <c r="F60">
         <v>5</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="8">
+        <v>42552</v>
+      </c>
+      <c r="H60" s="8">
+        <v>42125</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
@@ -11157,8 +11952,12 @@
       <c r="F61">
         <v>5</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="8">
+        <v>42583</v>
+      </c>
+      <c r="H61" s="8">
+        <v>42125</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
@@ -11182,8 +11981,12 @@
       <c r="F62">
         <v>12</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="G62" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H62" s="8">
+        <v>42339</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
@@ -11207,8 +12010,12 @@
       <c r="F63">
         <v>12</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H63" s="8">
+        <v>42339</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
@@ -11232,8 +12039,12 @@
       <c r="F64">
         <v>12</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H64" s="8">
+        <v>42339</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
@@ -11257,8 +12068,12 @@
       <c r="F65">
         <v>12</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="G65" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H65" s="8">
+        <v>42339</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
@@ -11282,8 +12097,12 @@
       <c r="F66">
         <v>12</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H66" s="8">
+        <v>42339</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
@@ -11307,8 +12126,12 @@
       <c r="F67">
         <v>12</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="G67" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H67" s="8">
+        <v>42339</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
@@ -11332,8 +12155,12 @@
       <c r="F68">
         <v>12</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="G68" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H68" s="8">
+        <v>42339</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
@@ -11357,8 +12184,12 @@
       <c r="F69">
         <v>12</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H69" s="8">
+        <v>42339</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
@@ -11382,8 +12213,12 @@
       <c r="F70">
         <v>12</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H70" s="8">
+        <v>42339</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
@@ -11407,8 +12242,12 @@
       <c r="F71">
         <v>12</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H71" s="8">
+        <v>42339</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
@@ -11432,8 +12271,12 @@
       <c r="F72">
         <v>12</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="G72" s="8">
+        <v>42309</v>
+      </c>
+      <c r="H72" s="8">
+        <v>42339</v>
+      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
@@ -11457,8 +12300,12 @@
       <c r="F73">
         <v>12</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="G73" s="8">
+        <v>42339</v>
+      </c>
+      <c r="H73" s="8">
+        <v>42339</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
@@ -11482,8 +12329,12 @@
       <c r="F74">
         <v>12</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="G74" s="8">
+        <v>42370</v>
+      </c>
+      <c r="H74" s="8">
+        <v>42339</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
@@ -11507,8 +12358,12 @@
       <c r="F75">
         <v>12</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="G75" s="8">
+        <v>42401</v>
+      </c>
+      <c r="H75" s="8">
+        <v>42339</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
@@ -11532,6 +12387,12 @@
       <c r="F76">
         <v>12</v>
       </c>
+      <c r="G76" s="8">
+        <v>42430</v>
+      </c>
+      <c r="H76" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -11553,6 +12414,12 @@
       <c r="F77">
         <v>12</v>
       </c>
+      <c r="G77" s="8">
+        <v>42461</v>
+      </c>
+      <c r="H77" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -11574,6 +12441,12 @@
       <c r="F78">
         <v>12</v>
       </c>
+      <c r="G78" s="8">
+        <v>42491</v>
+      </c>
+      <c r="H78" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -11595,6 +12468,12 @@
       <c r="F79">
         <v>12</v>
       </c>
+      <c r="G79" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H79" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -11616,8 +12495,14 @@
       <c r="F80">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="8">
+        <v>42552</v>
+      </c>
+      <c r="H80" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -11636,6 +12521,12 @@
       </c>
       <c r="F81">
         <v>12</v>
+      </c>
+      <c r="G81" s="8">
+        <v>42583</v>
+      </c>
+      <c r="H81" s="8">
+        <v>42339</v>
       </c>
     </row>
   </sheetData>
@@ -11647,17 +12538,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32EF42-1665-1742-8ED8-18BCC709F02B}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11676,8 +12569,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11696,8 +12595,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="8">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11716,8 +12618,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11736,8 +12641,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="8">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11756,8 +12664,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="8">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11776,8 +12687,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11796,8 +12710,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11816,8 +12733,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11836,8 +12756,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -11856,8 +12779,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="8">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11876,8 +12802,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11896,8 +12825,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11916,8 +12848,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11936,8 +12871,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="8">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11956,8 +12894,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="8">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -11976,8 +12917,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="8">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -11996,8 +12940,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="8">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -12016,8 +12963,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="8">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -12036,8 +12986,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="8">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -12056,8 +13009,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="8">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -12076,8 +13032,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="8">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -12097,8 +13056,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="8">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12118,8 +13080,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="8">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -12139,8 +13104,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="8">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -12160,8 +13128,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="8">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12181,8 +13152,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="8">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -12202,8 +13176,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="8">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -12223,8 +13200,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="8">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -12244,8 +13224,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="8">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -12265,8 +13248,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="8">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -12286,8 +13272,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="8">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -12307,6 +13296,9 @@
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32" s="8">
+        <v>42309</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -12328,6 +13320,9 @@
       <c r="F33">
         <v>0</v>
       </c>
+      <c r="G33" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -12349,6 +13344,9 @@
       <c r="F34">
         <v>0</v>
       </c>
+      <c r="G34" s="8">
+        <v>42370</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -12370,6 +13368,9 @@
       <c r="F35">
         <v>0</v>
       </c>
+      <c r="G35" s="8">
+        <v>42401</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -12391,6 +13392,9 @@
       <c r="F36">
         <v>0</v>
       </c>
+      <c r="G36" s="8">
+        <v>42430</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -12412,6 +13416,9 @@
       <c r="F37">
         <v>0</v>
       </c>
+      <c r="G37" s="8">
+        <v>42461</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -12433,6 +13440,9 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="G38" s="8">
+        <v>42491</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -12454,6 +13464,9 @@
       <c r="F39">
         <v>0</v>
       </c>
+      <c r="G39" s="8">
+        <v>42522</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -12475,8 +13488,9 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="8">
+        <v>42552</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
@@ -12500,8 +13514,9 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="8">
+        <v>42583</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
@@ -12525,8 +13540,12 @@
       <c r="F42">
         <v>5</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H42" s="8">
+        <v>42125</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
@@ -12550,8 +13569,12 @@
       <c r="F43">
         <v>5</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H43" s="8">
+        <v>42125</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
@@ -12575,8 +13598,12 @@
       <c r="F44">
         <v>5</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H44" s="8">
+        <v>42125</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
@@ -12600,8 +13627,12 @@
       <c r="F45">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H45" s="8">
+        <v>42125</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
@@ -12625,8 +13656,12 @@
       <c r="F46">
         <v>5</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H46" s="8">
+        <v>42125</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
@@ -12650,8 +13685,12 @@
       <c r="F47">
         <v>5</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H47" s="8">
+        <v>42125</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
@@ -12675,8 +13714,12 @@
       <c r="F48">
         <v>5</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H48" s="8">
+        <v>42125</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
@@ -12700,8 +13743,12 @@
       <c r="F49">
         <v>5</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H49" s="8">
+        <v>42125</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
@@ -12725,8 +13772,12 @@
       <c r="F50">
         <v>5</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H50" s="8">
+        <v>42125</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
@@ -12750,8 +13801,12 @@
       <c r="F51">
         <v>5</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="G51" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H51" s="8">
+        <v>42125</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
@@ -12775,8 +13830,12 @@
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="8">
+        <v>42309</v>
+      </c>
+      <c r="H52" s="8">
+        <v>42125</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
@@ -12800,8 +13859,12 @@
       <c r="F53">
         <v>5</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="G53" s="8">
+        <v>42339</v>
+      </c>
+      <c r="H53" s="8">
+        <v>42125</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
@@ -12825,8 +13888,12 @@
       <c r="F54">
         <v>5</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="8">
+        <v>42370</v>
+      </c>
+      <c r="H54" s="8">
+        <v>42125</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
@@ -12850,8 +13917,12 @@
       <c r="F55">
         <v>5</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="G55" s="8">
+        <v>42401</v>
+      </c>
+      <c r="H55" s="8">
+        <v>42125</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
@@ -12875,8 +13946,12 @@
       <c r="F56">
         <v>5</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="8">
+        <v>42430</v>
+      </c>
+      <c r="H56" s="8">
+        <v>42125</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
@@ -12900,8 +13975,12 @@
       <c r="F57">
         <v>5</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="G57" s="8">
+        <v>42461</v>
+      </c>
+      <c r="H57" s="8">
+        <v>42125</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
@@ -12925,8 +14004,12 @@
       <c r="F58">
         <v>5</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="G58" s="8">
+        <v>42491</v>
+      </c>
+      <c r="H58" s="8">
+        <v>42125</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
@@ -12950,8 +14033,12 @@
       <c r="F59">
         <v>5</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="G59" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H59" s="8">
+        <v>42125</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
@@ -12975,8 +14062,12 @@
       <c r="F60">
         <v>5</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="8">
+        <v>42552</v>
+      </c>
+      <c r="H60" s="8">
+        <v>42125</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
@@ -13000,8 +14091,12 @@
       <c r="F61">
         <v>5</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="8">
+        <v>42583</v>
+      </c>
+      <c r="H61" s="8">
+        <v>42125</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
@@ -13025,8 +14120,12 @@
       <c r="F62">
         <v>12</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="G62" s="8">
+        <v>42005</v>
+      </c>
+      <c r="H62" s="8">
+        <v>42339</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
@@ -13050,8 +14149,12 @@
       <c r="F63">
         <v>12</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="8">
+        <v>42036</v>
+      </c>
+      <c r="H63" s="8">
+        <v>42339</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
@@ -13075,8 +14178,12 @@
       <c r="F64">
         <v>12</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="8">
+        <v>42064</v>
+      </c>
+      <c r="H64" s="8">
+        <v>42339</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
@@ -13100,8 +14207,12 @@
       <c r="F65">
         <v>12</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="G65" s="8">
+        <v>42095</v>
+      </c>
+      <c r="H65" s="8">
+        <v>42339</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
@@ -13125,8 +14236,12 @@
       <c r="F66">
         <v>12</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="8">
+        <v>42125</v>
+      </c>
+      <c r="H66" s="8">
+        <v>42339</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
@@ -13150,8 +14265,12 @@
       <c r="F67">
         <v>12</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="G67" s="8">
+        <v>42156</v>
+      </c>
+      <c r="H67" s="8">
+        <v>42339</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
@@ -13175,8 +14294,12 @@
       <c r="F68">
         <v>12</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="G68" s="8">
+        <v>42186</v>
+      </c>
+      <c r="H68" s="8">
+        <v>42339</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
@@ -13200,8 +14323,12 @@
       <c r="F69">
         <v>12</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="8">
+        <v>42217</v>
+      </c>
+      <c r="H69" s="8">
+        <v>42339</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
@@ -13225,8 +14352,12 @@
       <c r="F70">
         <v>12</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="8">
+        <v>42248</v>
+      </c>
+      <c r="H70" s="8">
+        <v>42339</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
@@ -13250,8 +14381,12 @@
       <c r="F71">
         <v>12</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="8">
+        <v>42278</v>
+      </c>
+      <c r="H71" s="8">
+        <v>42339</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
@@ -13275,8 +14410,12 @@
       <c r="F72">
         <v>12</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="G72" s="8">
+        <v>42309</v>
+      </c>
+      <c r="H72" s="8">
+        <v>42339</v>
+      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
@@ -13300,8 +14439,12 @@
       <c r="F73">
         <v>12</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="G73" s="8">
+        <v>42339</v>
+      </c>
+      <c r="H73" s="8">
+        <v>42339</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
@@ -13325,8 +14468,12 @@
       <c r="F74">
         <v>12</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="G74" s="8">
+        <v>42370</v>
+      </c>
+      <c r="H74" s="8">
+        <v>42339</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
@@ -13350,8 +14497,12 @@
       <c r="F75">
         <v>12</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="G75" s="8">
+        <v>42401</v>
+      </c>
+      <c r="H75" s="8">
+        <v>42339</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
@@ -13375,6 +14526,12 @@
       <c r="F76">
         <v>12</v>
       </c>
+      <c r="G76" s="8">
+        <v>42430</v>
+      </c>
+      <c r="H76" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -13396,6 +14553,12 @@
       <c r="F77">
         <v>12</v>
       </c>
+      <c r="G77" s="8">
+        <v>42461</v>
+      </c>
+      <c r="H77" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -13417,6 +14580,12 @@
       <c r="F78">
         <v>12</v>
       </c>
+      <c r="G78" s="8">
+        <v>42491</v>
+      </c>
+      <c r="H78" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -13438,6 +14607,12 @@
       <c r="F79">
         <v>12</v>
       </c>
+      <c r="G79" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H79" s="8">
+        <v>42339</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -13459,8 +14634,14 @@
       <c r="F80">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="8">
+        <v>42552</v>
+      </c>
+      <c r="H80" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -13479,6 +14660,12 @@
       </c>
       <c r="F81">
         <v>12</v>
+      </c>
+      <c r="G81" s="8">
+        <v>42583</v>
+      </c>
+      <c r="H81" s="8">
+        <v>42339</v>
       </c>
     </row>
   </sheetData>
